--- a/Assets/StreamingAssets/config/数据.xlsx
+++ b/Assets/StreamingAssets/config/数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\TippingExcelTool\TippingExcelTool\Assets\StreamingAssets\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp-pc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF639DB8-BDA8-44CD-AA88-85E922ECE019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A431D88-26CD-41B9-9D8D-53AA8DADE86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="2535" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fasdff" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author>ljp</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -38,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
   <si>
     <t>int</t>
   </si>
@@ -63,18 +63,12 @@
     <t>str</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
     <t>l_int</t>
   </si>
   <si>
-    <t>l_float</t>
-  </si>
-  <si>
     <t>l_str</t>
   </si>
   <si>
@@ -96,18 +90,12 @@
     <t>price</t>
   </si>
   <si>
-    <t>islong</t>
-  </si>
-  <si>
     <t>rate</t>
   </si>
   <si>
     <t>category</t>
   </si>
   <si>
-    <t>catory</t>
-  </si>
-  <si>
     <t>dasd</t>
   </si>
   <si>
@@ -120,18 +108,12 @@
     <t>llliststr</t>
   </si>
   <si>
-    <t>gfgfhhssdfgg</t>
-  </si>
-  <si>
     <t>fadsf</t>
   </si>
   <si>
     <t>[1,5]</t>
   </si>
   <si>
-    <t>[1.5,5.8]</t>
-  </si>
-  <si>
     <t>[jfida,dfsdf]</t>
   </si>
   <si>
@@ -141,198 +123,96 @@
     <t>{[1,6],[2,8]}</t>
   </si>
   <si>
-    <t>{[胜多负少,更改],[2,8]}</t>
-  </si>
-  <si>
     <t>[1,6]</t>
   </si>
   <si>
-    <t>[1.5,5.9]</t>
-  </si>
-  <si>
     <t>["jfida",656,1.2359997]</t>
   </si>
   <si>
     <t>{[1,4],[2,9]}</t>
   </si>
   <si>
-    <t>{[胜多负少,更改],[2,9]}</t>
-  </si>
-  <si>
-    <t>{[1,4],[3,9]}</t>
-  </si>
-  <si>
     <t>[1,7]</t>
   </si>
   <si>
-    <t>[1.5,5.10]</t>
-  </si>
-  <si>
     <t>["jfida",656,1.236]</t>
   </si>
   <si>
     <t>{[1,4],[2,10]}</t>
   </si>
   <si>
-    <t>{[1,4],[4,10]}</t>
-  </si>
-  <si>
     <t>[1,8]</t>
   </si>
   <si>
-    <t>[1.5,5.11]</t>
-  </si>
-  <si>
     <t>["jfida",656,1.237]</t>
   </si>
   <si>
     <t>{[1,4],[2,11]}</t>
   </si>
   <si>
-    <t>{[胜多负少,更改],[2,11]}</t>
-  </si>
-  <si>
-    <t>{[1,4],[5,11]}</t>
-  </si>
-  <si>
     <t>[1,9]</t>
   </si>
   <si>
-    <t>[1.5,5.12]</t>
-  </si>
-  <si>
     <t>["jfida",656,1.238]</t>
   </si>
   <si>
     <t>{[1,4],[2,12]}</t>
   </si>
   <si>
-    <t>{[胜多负少,更改],[2,12]}</t>
-  </si>
-  <si>
-    <t>{[1,4],[6,12]}</t>
-  </si>
-  <si>
     <t>[1,10]</t>
   </si>
   <si>
-    <t>[1.5,5.13]</t>
-  </si>
-  <si>
     <t>["jfida",656,1.239]</t>
   </si>
   <si>
     <t>{[1,4],[2,13]}</t>
   </si>
   <si>
-    <t>{[胜多负少,更改],[2,13]}</t>
-  </si>
-  <si>
-    <t>{[1,4],[7,13]}</t>
-  </si>
-  <si>
     <t>[1,11]</t>
   </si>
   <si>
-    <t>[1.5,5.14]</t>
-  </si>
-  <si>
     <t>["jfida",656,1.240]</t>
   </si>
   <si>
     <t>{[1,4],[2,14]}</t>
   </si>
   <si>
-    <t>{[胜多负少,更改],[2,14]}</t>
-  </si>
-  <si>
-    <t>{[1,4],[8,14]}</t>
-  </si>
-  <si>
     <t>[1,12]</t>
   </si>
   <si>
-    <t>[1.5,5.15]</t>
-  </si>
-  <si>
     <t>["jfida",656,1.241]</t>
   </si>
   <si>
     <t>{[1,4],[2,15]}</t>
   </si>
   <si>
-    <t>{[胜多负少,更改],[2,15]}</t>
-  </si>
-  <si>
-    <t>{[1,4],[9,15]}</t>
-  </si>
-  <si>
     <t>[1,13]</t>
   </si>
   <si>
-    <t>[1.5,5.16]</t>
-  </si>
-  <si>
     <t>["jfida",656,1.242]</t>
   </si>
   <si>
     <t>{[1,4],[2,16]}</t>
   </si>
   <si>
-    <t>{[胜多负少,更改],[2,16]}</t>
-  </si>
-  <si>
-    <t>{[1,4],[10,16]}</t>
-  </si>
-  <si>
     <t>[1,14]</t>
   </si>
   <si>
-    <t>[1.5,5.17]</t>
-  </si>
-  <si>
     <t>["jfida",656,1.243]</t>
   </si>
   <si>
     <t>{[1,4],[2,17]}</t>
   </si>
   <si>
-    <t>{[胜多负少,更改],[2,17]}</t>
-  </si>
-  <si>
-    <t>{[1,4],[11,17]}</t>
-  </si>
-  <si>
     <t>[1,15]</t>
   </si>
   <si>
-    <t>[1.5,5.18]</t>
-  </si>
-  <si>
     <t>["jfida",656,1.244]</t>
   </si>
   <si>
     <t>{[1,4],[2,18]}</t>
   </si>
   <si>
-    <t>{[胜多负少,更改],[2,18]}</t>
-  </si>
-  <si>
-    <t>{[1,4],[12,18]}</t>
-  </si>
-  <si>
-    <t>新增</t>
-  </si>
-  <si>
-    <t>{[打发,分分分],[2,18]}</t>
-  </si>
-  <si>
-    <t>新增2</t>
-  </si>
-  <si>
-    <t>{[打发打发2,分分2],[2,18]}</t>
-  </si>
-  <si>
     <t>l_l_float</t>
   </si>
   <si>
@@ -348,29 +228,81 @@
     <t>{[1,"阿斯蒂芬"],[2,3]}</t>
   </si>
   <si>
-    <t>{[活动分分工和,更改],[2,10]}</t>
-  </si>
-  <si>
-    <t>Hades</t>
-  </si>
-  <si>
     <t>HP</t>
   </si>
   <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>[胜3,负2]</t>
-  </si>
-  <si>
     <t>ATK</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>shootRate</t>
+  </si>
+  <si>
+    <t>POFRate</t>
+  </si>
+  <si>
+    <t>fistMulti</t>
+  </si>
+  <si>
+    <t>criticalMulti</t>
+  </si>
+  <si>
+    <t>bulletMulti</t>
+  </si>
+  <si>
+    <t>撒旦（一阶）</t>
+  </si>
+  <si>
+    <t>撒旦（二阶）</t>
+  </si>
+  <si>
+    <t>小怪二</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪三</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英怪一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英怪二</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkAdd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpAdd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedMulti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -386,6 +318,19 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -433,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -442,6 +387,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -787,22 +734,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="1"/>
-    <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="14.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" style="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.8984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.19921875" style="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="14" width="14.875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="14.8984375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -814,271 +764,178 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>57</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>100</v>
+        <v>59</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>98</v>
+      <c r="B3" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C3" s="3">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1">
-        <v>9935434343</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.52</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="1">
-        <v>14.3</v>
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
+      <c r="B4" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="C4" s="3">
-        <v>6768</v>
-      </c>
-      <c r="D4" s="1">
-        <v>9935434344</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2.725412333</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>34</v>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C5" s="3">
-        <v>6769</v>
-      </c>
-      <c r="D5" s="1">
-        <v>9935434345</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3.5230000000000001</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+      <c r="B6" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C6" s="3">
-        <v>6770</v>
-      </c>
-      <c r="D6" s="1">
-        <v>9935434346</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3.52</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
+      <c r="B7" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="C7" s="3">
-        <v>6771</v>
-      </c>
-      <c r="D7" s="1">
-        <v>9935434347</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>51</v>
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1086,37 +943,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3">
-        <v>6772</v>
-      </c>
-      <c r="D8" s="1">
-        <v>9935434348</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5.52</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>57</v>
+        <v>150</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1124,268 +966,89 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3">
-        <v>6773</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9935434349</v>
-      </c>
-      <c r="E9" s="3">
-        <v>6.52</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="I9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
+      <c r="B10" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C10" s="3">
-        <v>6774</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>9935434350</v>
-      </c>
-      <c r="E10" s="3">
-        <v>7.52</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>69</v>
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3">
-        <v>6775</v>
-      </c>
-      <c r="D11" s="1">
-        <v>9935434351</v>
-      </c>
-      <c r="E11" s="3">
-        <v>8.52</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6776</v>
-      </c>
-      <c r="D12" s="1">
-        <v>9935434352</v>
-      </c>
-      <c r="E12" s="3">
-        <v>9.52</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6777</v>
-      </c>
-      <c r="D13" s="1">
-        <v>9935434353</v>
-      </c>
-      <c r="E13" s="3">
-        <v>10.52</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="5">
-        <v>113</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="3">
-        <v>6777</v>
-      </c>
-      <c r="D14" s="1">
-        <v>9935434353</v>
-      </c>
-      <c r="E14" s="3">
-        <v>10.52</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="5">
-        <v>115</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6777</v>
-      </c>
-      <c r="D15" s="1">
-        <v>9935434353</v>
-      </c>
-      <c r="E15" s="3">
-        <v>10.52</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -1399,14 +1062,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="14.125" style="1"/>
+    <col min="5" max="5" width="14.09765625" style="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="17.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.25" style="1" customWidth="1"/>
-    <col min="9" max="12" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.19921875" style="1" customWidth="1"/>
+    <col min="9" max="12" width="14.8984375" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1424,66 +1087,66 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1491,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3">
         <v>6767</v>
@@ -1503,25 +1166,25 @@
         <v>0.52</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1529,7 +1192,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3">
         <v>6768</v>
@@ -1541,25 +1204,25 @@
         <v>2.725412333</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1567,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>6769</v>
@@ -1579,25 +1242,25 @@
         <v>3.5230000000000001</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1605,7 +1268,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>6770</v>
@@ -1617,25 +1280,25 @@
         <v>3.52</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1643,7 +1306,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>6771</v>
@@ -1655,25 +1318,25 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1681,7 +1344,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3">
         <v>6772</v>
@@ -1693,25 +1356,25 @@
         <v>5.52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1719,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3">
         <v>6773</v>
@@ -1731,25 +1394,25 @@
         <v>6.52</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1757,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
         <v>6774</v>
@@ -1769,25 +1432,25 @@
         <v>7.52</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1795,7 +1458,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3">
         <v>6775</v>
@@ -1807,25 +1470,25 @@
         <v>8.52</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1833,7 +1496,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3">
         <v>6776</v>
@@ -1845,25 +1508,25 @@
         <v>9.52</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1871,7 +1534,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3">
         <v>6777</v>
@@ -1883,28 +1546,29 @@
         <v>10.52</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Assets/StreamingAssets/config/数据.xlsx
+++ b/Assets/StreamingAssets/config/数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Booom\Assets\StreamingAssets\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A431D88-26CD-41B9-9D8D-53AA8DADE86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98D7C01-A92C-46DA-A67C-39F695C323D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="2910" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fasdff" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author>ljp</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
   <si>
     <t>int</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>shootRate</t>
-  </si>
-  <si>
-    <t>POFRate</t>
   </si>
   <si>
     <t>fistMulti</t>
@@ -296,6 +293,9 @@
   <si>
     <t>speedMulti</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎柱</t>
   </si>
 </sst>
 </file>
@@ -732,31 +732,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="14.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.19921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.8984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.19921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="14" width="14.8984375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21" style="1" customWidth="1"/>
+    <col min="12" max="13" width="14.875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,19 +766,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -790,14 +789,11 @@
       <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -808,19 +804,19 @@
         <v>57</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>60</v>
@@ -831,19 +827,16 @@
       <c r="K2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3">
         <v>15</v>
@@ -858,12 +851,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:12">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3">
         <v>25</v>
@@ -878,12 +871,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3">
         <v>10</v>
@@ -894,16 +887,16 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="L5" s="1">
+      <c r="K5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="3">
         <v>50</v>
@@ -918,12 +911,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="3">
         <v>100</v>
@@ -938,12 +931,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="3">
         <v>150</v>
@@ -961,12 +954,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:12">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3">
         <v>100</v>
@@ -982,21 +975,18 @@
         <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L9" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="M9" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:12">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3">
         <v>10</v>
@@ -1017,31 +1007,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+    <row r="11" spans="1:12">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="3">
+        <v>50</v>
+      </c>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:12">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:12">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:12">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1062,14 +1061,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="14.09765625" style="1"/>
+    <col min="5" max="5" width="14.125" style="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="17.69921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.19921875" style="1" customWidth="1"/>
-    <col min="9" max="12" width="14.8984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.25" style="1" customWidth="1"/>
+    <col min="9" max="12" width="14.875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/Assets/StreamingAssets/config/数据.xlsx
+++ b/Assets/StreamingAssets/config/数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Booom\Assets\StreamingAssets\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98D7C01-A92C-46DA-A67C-39F695C323D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFFED76-6029-45FC-9544-8AEB88B5C551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="2910" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2220" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fasdff" sheetId="2" r:id="rId1"/>
@@ -735,7 +735,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>

--- a/Assets/StreamingAssets/config/数据.xlsx
+++ b/Assets/StreamingAssets/config/数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Booom\Assets\StreamingAssets\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp-pc\Desktop\暴造\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFFED76-6029-45FC-9544-8AEB88B5C551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA278DF-600E-4662-84DA-FE9DC1DD3088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2220" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fasdff" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author>ljp</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
   <si>
     <t>int</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>shootRate</t>
+  </si>
+  <si>
+    <t>POFRate</t>
   </si>
   <si>
     <t>fistMulti</t>
@@ -295,7 +298,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>炎柱</t>
+    <t>女恶魔的头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>女恶魔的手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -732,30 +740,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="1"/>
+    <col min="4" max="4" width="14.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" style="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21" style="1" customWidth="1"/>
-    <col min="12" max="13" width="14.875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="17.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.8984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.19921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="1" customWidth="1"/>
+    <col min="13" max="14" width="14.8984375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -766,19 +775,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -789,11 +798,14 @@
       <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -804,19 +816,19 @@
         <v>57</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>60</v>
@@ -827,16 +839,19 @@
       <c r="K2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3">
         <v>15</v>
@@ -851,12 +866,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="3">
         <v>25</v>
@@ -871,12 +886,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="3">
         <v>10</v>
@@ -887,16 +902,16 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3">
         <v>50</v>
@@ -911,12 +926,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="3">
         <v>100</v>
@@ -931,12 +946,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3">
         <v>150</v>
@@ -954,12 +969,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3">
         <v>100</v>
@@ -975,18 +990,21 @@
         <v>1</v>
       </c>
       <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
         <v>1.5</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" s="3">
         <v>10</v>
@@ -1001,46 +1019,66 @@
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>76</v>
+      <c r="B11" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C11" s="3">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
       </c>
       <c r="G11" s="3"/>
       <c r="I11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="3">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1061,14 +1099,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="14.125" style="1"/>
+    <col min="5" max="5" width="14.09765625" style="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="17.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.25" style="1" customWidth="1"/>
-    <col min="9" max="12" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.19921875" style="1" customWidth="1"/>
+    <col min="9" max="12" width="14.8984375" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/Assets/StreamingAssets/config/数据.xlsx
+++ b/Assets/StreamingAssets/config/数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp-pc\Desktop\暴造\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Booom\Assets\StreamingAssets\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA278DF-600E-4662-84DA-FE9DC1DD3088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E1CF1A-4A80-411E-A0A0-11B56A5797E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2220" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fasdff" sheetId="2" r:id="rId1"/>
@@ -743,24 +743,24 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="14.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.19921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.8984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="14" width="14.8984375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="14.875" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1099,14 +1099,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="14.09765625" style="1"/>
+    <col min="5" max="5" width="14.125" style="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="17.69921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.19921875" style="1" customWidth="1"/>
-    <col min="9" max="12" width="14.8984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.25" style="1" customWidth="1"/>
+    <col min="9" max="12" width="14.875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/Assets/StreamingAssets/config/数据.xlsx
+++ b/Assets/StreamingAssets/config/数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Booom\Assets\StreamingAssets\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E1CF1A-4A80-411E-A0A0-11B56A5797E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5754D653-B9AC-4F42-B29E-D8B3533284CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2220" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fasdff" sheetId="2" r:id="rId1"/>
@@ -743,7 +743,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1007,13 +1007,13 @@
         <v>72</v>
       </c>
       <c r="C10" s="3">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
